--- a/public/template_user.xlsx
+++ b/public/template_user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44D80414-B54E-40F5-9392-2BC06F7D606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB5D50FC-1009-424D-9380-02BFEB979FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{C125EB91-963B-401F-BBB1-B6239F31E363}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{64F9D24A-A02E-4861-9554-AB6A87CFB5D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,35 +20,38 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>emperor</t>
-  </si>
-  <si>
-    <t>conqueror</t>
-  </si>
-  <si>
-    <t>conquerority</t>
-  </si>
-  <si>
-    <t>emperors</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>nama</t>
   </si>
   <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>level_id</t>
+  </si>
+  <si>
+    <t>hertin22</t>
+  </si>
+  <si>
+    <t>hertin</t>
   </si>
 </sst>
 </file>
@@ -64,10 +67,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -406,60 +411,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CA00F6-AE02-4E72-AA5C-DCFB47CF1A47}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9A9332-B142-4BF2-AFCE-B12E807BAD27}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2">
         <v>2</v>
-      </c>
-      <c r="D2">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>123456</v>
       </c>
     </row>
   </sheetData>
